--- a/InfraSetup/infra.xlsx
+++ b/InfraSetup/infra.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bd283741d4ba3cd/Case/FY18 Cxs/Samsung SDS/Docs/InfraSetup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyseong\source\repos\Cloud-Innovation-Lab\InfraSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Network" sheetId="1" r:id="rId1"/>
@@ -1345,57 +1345,57 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D1:F3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D1:F3" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="D1:F3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Public IP Name" dataDxfId="31"/>
-    <tableColumn id="2" name="Allocation Method" dataDxfId="30"/>
-    <tableColumn id="3" name="Domain Name Label" dataDxfId="29"/>
+    <tableColumn id="1" name="Public IP Name" dataDxfId="29"/>
+    <tableColumn id="2" name="Allocation Method" dataDxfId="28"/>
+    <tableColumn id="3" name="Domain Name Label" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:K7"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="NSG Name" dataDxfId="26"/>
-    <tableColumn id="2" name="Rule Name" dataDxfId="25"/>
-    <tableColumn id="3" name="Protocol" dataDxfId="24"/>
-    <tableColumn id="4" name="Direction" dataDxfId="23"/>
-    <tableColumn id="5" name="Priority" dataDxfId="22"/>
-    <tableColumn id="6" name="SourceAddressPrefix" dataDxfId="21"/>
-    <tableColumn id="7" name="SourcePortRange" dataDxfId="20"/>
-    <tableColumn id="8" name="DestinationAddressPrefix" dataDxfId="19"/>
-    <tableColumn id="9" name="DestinationPortRange" dataDxfId="18"/>
-    <tableColumn id="10" name="Access" dataDxfId="17"/>
-    <tableColumn id="11" name="Description" dataDxfId="16"/>
+    <tableColumn id="1" name="NSG Name" dataDxfId="24"/>
+    <tableColumn id="2" name="Rule Name" dataDxfId="23"/>
+    <tableColumn id="3" name="Protocol" dataDxfId="22"/>
+    <tableColumn id="4" name="Direction" dataDxfId="21"/>
+    <tableColumn id="5" name="Priority" dataDxfId="20"/>
+    <tableColumn id="6" name="SourceAddressPrefix" dataDxfId="19"/>
+    <tableColumn id="7" name="SourcePortRange" dataDxfId="18"/>
+    <tableColumn id="8" name="DestinationAddressPrefix" dataDxfId="17"/>
+    <tableColumn id="9" name="DestinationPortRange" dataDxfId="16"/>
+    <tableColumn id="10" name="Access" dataDxfId="15"/>
+    <tableColumn id="11" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="13"/>
-    <tableColumn id="2" name="SKU" dataDxfId="12"/>
-    <tableColumn id="3" name="PlatformUpdateDomainCount" dataDxfId="11"/>
-    <tableColumn id="4" name="PlatformFaultDomainCount" dataDxfId="10"/>
+    <tableColumn id="1" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" name="SKU" dataDxfId="10"/>
+    <tableColumn id="3" name="PlatformUpdateDomainCount" dataDxfId="9"/>
+    <tableColumn id="4" name="PlatformFaultDomainCount" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Key" dataDxfId="7"/>
-    <tableColumn id="2" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="description" dataDxfId="0"/>
+    <tableColumn id="1" name="Key" dataDxfId="5"/>
+    <tableColumn id="2" name="Value" dataDxfId="4"/>
+    <tableColumn id="3" name="description" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,7 +1405,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:A66" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A66"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Size" dataDxfId="3"/>
+    <tableColumn id="1" name="Size" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1713,7 +1713,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2205,15 +2205,15 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2324,7 +2324,7 @@
         <v>140</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>150</v>
